--- a/docs/StructureDefinition-MedicationRequestPending.xlsx
+++ b/docs/StructureDefinition-MedicationRequestPending.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestPending.xlsx
+++ b/docs/StructureDefinition-MedicationRequestPending.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestPending.xlsx
+++ b/docs/StructureDefinition-MedicationRequestPending.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestPending.xlsx
+++ b/docs/StructureDefinition-MedicationRequestPending.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestPending.xlsx
+++ b/docs/StructureDefinition-MedicationRequestPending.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestPending.xlsx
+++ b/docs/StructureDefinition-MedicationRequestPending.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -905,7 +905,8 @@
     <t>1747: source value based on PENDING OUTPATIENT ORDERS - PLACER NUMBER (52.41-.01)</t>
   </si>
   <si>
-    <t>RxOut.PendingRxOrder.PlacerCPRSOrderIEN,RxOut.PendingRxOrder.PlacerCPRSOrderSID</t>
+    <t>RxOut.PendingRxOrder.PlacerCPRSOrderIEN
+RxOut.PendingRxOrder.PlacerCPRSOrderSID</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -1236,7 +1237,8 @@
     <t>1754: source value based on PENDING OUTPATIENT ORDERS - DRUG (52.41-11)</t>
   </si>
   <si>
-    <t>RxOut.PendingRxOrder.LocalDrugIEN,RxOut.PendingRxOrder.LocalDrugSID</t>
+    <t>RxOut.PendingRxOrder.LocalDrugIEN
+RxOut.PendingRxOrder.LocalDrugSID</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x]:medicationReference</t>
@@ -1388,7 +1390,8 @@
     <t>1751: reference based on PENDING OUTPATIENT ORDERS - PROVIDER (52.41-5)</t>
   </si>
   <si>
-    <t>RxOut.PendingRxOrder.ProviderIEN,RxOut.PendingRxOrder.ProviderSID</t>
+    <t>RxOut.PendingRxOrder.ProviderIEN
+RxOut.PendingRxOrder.ProviderSID</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -1455,7 +1458,8 @@
     <t>1750: reference based on PENDING OUTPATIENT ORDERS - ENTERED BY (52.41-4)</t>
   </si>
   <si>
-    <t>RxOut.PendingRxOrder.EnteredByStaffIEN,RxOut.PendingRxOrder.EnteredByStaffSID</t>
+    <t>RxOut.PendingRxOrder.EnteredByStaffIEN
+RxOut.PendingRxOrder.EnteredByStaffSID</t>
   </si>
   <si>
     <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
@@ -1928,7 +1932,9 @@
     <t>1752: source value based on PENDING OUTPATIENT ORDERS - EFFECTIVE DATE (52.41-6)</t>
   </si>
   <si>
-    <t>RxOut.PendingRxOrder.EffectiveDateTime,RxOut.PharmacyInstructions.EffectiveDateTime,RxOut.ProviderComments.EffectiveDateTime</t>
+    <t>RxOut.PendingRxOrder.EffectiveDateTime
+RxOut.PharmacyInstructions.EffectiveDateTime
+RxOut.ProviderComments.EffectiveDateTime</t>
   </si>
   <si>
     <t>./low</t>
@@ -3204,7 +3210,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="76.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="108.0859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="38.37109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="245.42578125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-MedicationRequestPending.xlsx
+++ b/docs/StructureDefinition-MedicationRequestPending.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestPending.xlsx
+++ b/docs/StructureDefinition-MedicationRequestPending.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
